--- a/Design/钓鱼模拟器美术附加需求.xlsx
+++ b/Design/钓鱼模拟器美术附加需求.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Unity\projects\GameOff2022\GameOffJam\GameOffJam2022\Design\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{4C5B7F03-EC7B-42CA-9EE8-8F725EC5C874}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EEFCD769-BE1F-4D35-8089-880323FF810E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21120" xr2:uid="{434668AA-B64E-4835-8656-FEC365B09021}"/>
   </bookViews>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="20">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="22">
   <si>
     <t>类别</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -114,6 +114,14 @@
   </si>
   <si>
     <t>鱼类模型存在稀有度描边</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>场景</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>场景新增环境润色</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -218,7 +226,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -245,6 +253,9 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -560,10 +571,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A0CD1E2C-8D65-487E-B242-89918E810BC0}">
-  <dimension ref="A1:C14"/>
+  <dimension ref="A1:C15"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G23" sqref="G23"/>
+      <selection activeCell="C16" sqref="C16:C17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -706,6 +717,17 @@
         <v>19</v>
       </c>
     </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A15" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="B15" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="C15" s="9" t="s">
+        <v>21</v>
+      </c>
+    </row>
   </sheetData>
   <mergeCells count="4">
     <mergeCell ref="A4:A8"/>

--- a/Design/钓鱼模拟器美术附加需求.xlsx
+++ b/Design/钓鱼模拟器美术附加需求.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Unity\projects\GameOff2022\GameOffJam\GameOffJam2022\Design\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EEFCD769-BE1F-4D35-8089-880323FF810E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FFB3626D-06CF-4C1B-B416-3A24C4434EA7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21120" xr2:uid="{434668AA-B64E-4835-8656-FEC365B09021}"/>
   </bookViews>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="22">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="41" uniqueCount="25">
   <si>
     <t>类别</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -122,6 +122,18 @@
   </si>
   <si>
     <t>场景新增环境润色</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>通常</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>新增设置界面，效果同game6</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>新增制作人员界面</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -571,10 +583,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A0CD1E2C-8D65-487E-B242-89918E810BC0}">
-  <dimension ref="A1:C15"/>
+  <dimension ref="A1:C17"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C16" sqref="C16:C17"/>
+      <selection activeCell="C15" sqref="C15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -728,6 +740,28 @@
         <v>21</v>
       </c>
     </row>
+    <row r="16" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A16" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="B16" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="C16" s="9" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A17" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="B17" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="C17" s="9" t="s">
+        <v>24</v>
+      </c>
+    </row>
   </sheetData>
   <mergeCells count="4">
     <mergeCell ref="A4:A8"/>
